--- a/description.xlsx
+++ b/description.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Documents\GitHub\Kafka-Memes-auf-TikTok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CC855-98B4-4AFE-ADF5-47ED4787CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33947C8F-68D3-469F-ACE6-5A1CDFB6372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{167FD852-219E-4D8E-8213-2BE66488903D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="description" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,9 +125,6 @@
     <t>https://www.tiktok.com/@tlllpa/video/7372234496403442977</t>
   </si>
   <si>
-    <t xml:space="preserve">Tshirt: klamottenhalt.com #kafka </t>
-  </si>
-  <si>
     <t>tlllpa</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t xml:space="preserve">Die Verwandlung💛#fy #fyp #karlotte #kafka #franzkafka #dieverwandlung #metamorphosis #literature #classics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tshirt:  klamottenhalt.com #kafka </t>
   </si>
 </sst>
 </file>
@@ -370,9 +370,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB99B9-2FEA-46A6-AA6A-5F5A8D08F9DB}">
   <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +868,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -966,7 +966,7 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -975,12 +975,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -989,13 +989,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1003,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,13 +1017,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,13 +1031,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,13 +1045,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,13 +1059,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,13 +1073,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,13 +1087,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,13 +1101,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,13 +1115,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,13 +1129,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,13 +1143,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>57</v>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,13 +1157,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>60</v>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1171,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>65</v>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1213,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,13 +1227,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,13 +1241,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,13 +1255,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="3" t="s">
         <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,13 +1269,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>79</v>
+      <c r="D32" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,13 +1283,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
         <v>83</v>
       </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>82</v>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,22 +1300,21 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="2" t="s">
         <v>85</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{870266AE-7DB9-483A-AD04-5B67B5889FDA}"/>
     <hyperlink ref="C11" r:id="rId2" display="https://www.tiktok.com/tag/kafka" xr:uid="{FF2B09A3-F1AF-4C1E-89DA-A74AEAB238B3}"/>
-    <hyperlink ref="D34" r:id="rId3" xr:uid="{F866C77E-8B4F-454B-9854-DBFD5D96F1A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/description.xlsx
+++ b/description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Documents\GitHub\Kafka-Memes-auf-TikTok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33947C8F-68D3-469F-ACE6-5A1CDFB6372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B651A-B1A1-42B3-8598-5BF0B3DEADA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{167FD852-219E-4D8E-8213-2BE66488903D}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>humanlif8</t>
   </si>
   <si>
-    <t xml:space="preserve">🪳✨De majestueux cafards✨🪳Kafka is marvelous, but thinking about him makes me cry in the ugliest way possible #kafka #kafkameme #literaturememes #philosophymemes </t>
-  </si>
-  <si>
     <t xml:space="preserve">Es ist so! #Kafka #meme #verwandlung #schloss #witz #jugendliche </t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tshirt:  klamottenhalt.com #kafka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De majestueux cafards Kafka is marvelous, but thinking about him makes me cry in the ugliest way possible #kafka #kafkameme #literaturememes #philosophymemes </t>
   </si>
 </sst>
 </file>
@@ -365,14 +365,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -832,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB99B9-2FEA-46A6-AA6A-5F5A8D08F9DB}">
   <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -908,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -936,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -964,7 +963,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -975,13 +974,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1002,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,13 +1016,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,13 +1030,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,13 +1044,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,13 +1058,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,13 +1072,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,13 +1086,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,13 +1100,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,13 +1114,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,13 +1128,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,13 +1142,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,13 +1156,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1170,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1184,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1198,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1212,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,13 +1240,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,13 +1254,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,13 +1268,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,13 +1282,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,10 +1299,10 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="4" t="s">
         <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/description.xlsx
+++ b/description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Documents\GitHub\Kafka-Memes-auf-TikTok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B651A-B1A1-42B3-8598-5BF0B3DEADA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87403740-5854-41BE-AC43-6EB1C317EF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{167FD852-219E-4D8E-8213-2BE66488903D}"/>
   </bookViews>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">Tshirt:  klamottenhalt.com #kafka </t>
   </si>
   <si>
-    <t xml:space="preserve">De majestueux cafards Kafka is marvelous, but thinking about him makes me cry in the ugliest way possible #kafka #kafkameme #literaturememes #philosophymemes </t>
+    <t xml:space="preserve">🪳✨De majestueux cafards✨🪳Kafka is marvelous, but thinking about him makes me cry in the ugliest way possible#kafka #kafkameme #literaturememes #philosophymemes </t>
   </si>
 </sst>
 </file>
@@ -365,13 +365,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -832,7 +833,7 @@
   <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +966,7 @@
       <c r="C10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -993,7 +994,7 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
